--- a/incident.xlsx
+++ b/incident.xlsx
@@ -1,214 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devfe\OneDrive\Documentos\GitHub\powerbi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BDEC00-53A4-4EDB-99E3-C848CE4CE4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Page 1" r:id="rId3" sheetId="1"/>
+    <sheet name="Page 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy HH:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="dd/MM/yyyy"/>
-  </numFmts>
-  <fonts count="3">
-    <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-  </cellXfs>
-</styleSheet>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
-      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" style="10" width="10.0" customWidth="true"/>
-    <col min="2" max="2" width="18.0" customWidth="true"/>
-    <col min="3" max="3" width="10.0" customWidth="true"/>
-    <col min="4" max="4" style="10" width="18.0" customWidth="true"/>
-    <col min="5" max="5" style="10" width="11.0" customWidth="true"/>
-    <col min="6" max="6" width="10.0" customWidth="true"/>
-    <col min="7" max="7" width="27.0" customWidth="true"/>
-    <col min="8" max="8" style="10" width="17.0" customWidth="true"/>
-    <col min="9" max="9" style="10" width="21.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="inlineStr">
-        <is>
-          <t>Número</t>
-        </is>
-      </c>
-      <c r="B1" s="12" t="inlineStr">
-        <is>
-          <t>Criado em</t>
-        </is>
-      </c>
-      <c r="C1" s="12" t="inlineStr">
-        <is>
-          <t>Prioridade</t>
-        </is>
-      </c>
-      <c r="D1" s="12" t="inlineStr">
-        <is>
-          <t>Descrição resumida</t>
-        </is>
-      </c>
-      <c r="E1" s="12" t="inlineStr">
-        <is>
-          <t>Atribuído a</t>
-        </is>
-      </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="G1" s="12" t="inlineStr">
-        <is>
-          <t>Motivo para estar em espera</t>
-        </is>
-      </c>
-      <c r="H1" s="12" t="inlineStr">
-        <is>
-          <t>Usuário Impactado</t>
-        </is>
-      </c>
-      <c r="I1" s="12" t="inlineStr">
-        <is>
-          <t>Anotações de trabalho</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>INC1641730</t>
-        </is>
-      </c>
-      <c r="B2" s="6" t="n">
-        <v>45447.51841435185</v>
-      </c>
-      <c r="C2" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D2" s="10" t="inlineStr">
-        <is>
-          <t>Usuária deseja suporte para Canal Cliente.</t>
-        </is>
-      </c>
-      <c r="E2" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="10" t="inlineStr">
-        <is>
-          <t>Em Andamento</t>
-        </is>
-      </c>
-      <c r="G2" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="10" t="inlineStr">
-        <is>
-          <t>Juliana de Araujo Silva</t>
-        </is>
-      </c>
-      <c r="I2" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">05/06/2024 16:27:48 - Bruno Rodrigues Borges (Anotações de trabalho)
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="134">
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Criado em</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Descrição resumida</t>
+  </si>
+  <si>
+    <t>Atribuído a</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Motivo para estar em espera</t>
+  </si>
+  <si>
+    <t>Usuário Impactado</t>
+  </si>
+  <si>
+    <t>Anotações de trabalho</t>
+  </si>
+  <si>
+    <t>INC1641730</t>
+  </si>
+  <si>
+    <t>3 - Moderada</t>
+  </si>
+  <si>
+    <t>Usuária deseja suporte para Canal Cliente.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Em Andamento</t>
+  </si>
+  <si>
+    <t>Juliana de Araujo Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/06/2024 16:27:48 - Bruno Rodrigues Borges (Anotações de trabalho)
 Favor analisar.
 05/06/2024 16:26:00 - Bruno Rodrigues Borges (Anotações de trabalho)
 PB.980
@@ -232,51 +91,18 @@
 Artigo de conhecimento relacionado por: EWZK
 [code]&lt;a title='KP - Atender Canal Cliente' href='kb_view.do?sys_kb_id=1c7816851b790e18b5922170f54bcb5e'&gt;KB0034570 : KP - Atender Canal Cliente&lt;/a&gt;[/code]
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>INC1645809</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>45448.49565972222</v>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>Manifestação 00248468 - Cliente GRECA DISTRIBUIDORA DE ASFALTOS LTDA</t>
-        </is>
-      </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F3" s="10" t="inlineStr">
-        <is>
-          <t>Em Andamento</t>
-        </is>
-      </c>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H3" s="10" t="inlineStr">
-        <is>
-          <t>SACP SAC Petrobras</t>
-        </is>
-      </c>
-      <c r="I3" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">05/06/2024 18:07:30 - Jheniffer Silva Belem (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1645809</t>
+  </si>
+  <si>
+    <t>Manifestação 00248468 - Cliente GRECA DISTRIBUIDORA DE ASFALTOS LTDA</t>
+  </si>
+  <si>
+    <t>SACP SAC Petrobras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/06/2024 18:07:30 - Jheniffer Silva Belem (Anotações de trabalho)
 Foi realizado orientação para o  usuário por call, de como habilitar o prenchimento dos campos, foi possível visualizar e preencher os locais e demais campos de acordo com o Canal Cliente antigo, conforme print anexo.
 Encaminhando para a mesa da EY, conforme orientação do Currais, pois o usuário está alegando que os outros locais não aparacem para o mês de Junho/2024, porém aparecem para o mês de Maio/2024. Por gentileza, verificar, pois o usuário precisa realizar o procedimento para os demais locais.
 No Novo Portal está espelhando as mesmas configurações do CC antigo.
@@ -298,51 +124,30 @@
 05/06/2024 11:53:45 - Janderson Meira Barboza (Anotações de trabalho)
 O cliente, após enviar o print, disse: "Vou só até ai, os demais campos não habilitam para interação"
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="inlineStr">
-        <is>
-          <t>INC1620071</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="n">
-        <v>45440.4237037037</v>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>4 - Baixa</t>
-        </is>
-      </c>
-      <c r="D4" s="10" t="inlineStr">
-        <is>
-          <t>Problema em avanço de fase no CC-DUTO.</t>
-        </is>
-      </c>
-      <c r="E4" s="10" t="inlineStr">
-        <is>
-          <t>Benjamin de Oliveira Machado Junior</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>Em Espera</t>
-        </is>
-      </c>
-      <c r="G4" s="10" t="inlineStr">
-        <is>
-          <t>Aguardando Solicitante</t>
-        </is>
-      </c>
-      <c r="H4" s="10" t="inlineStr">
-        <is>
-          <t>Ana Carolina da Silva Soares</t>
-        </is>
-      </c>
-      <c r="I4" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">05/06/2024 15:37:29 - Benjamin de Oliveira Machado Junior (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1620071</t>
+  </si>
+  <si>
+    <t>4 - Baixa</t>
+  </si>
+  <si>
+    <t>Problema em avanço de fase no CC-DUTO.</t>
+  </si>
+  <si>
+    <t>Benjamin de Oliveira Machado Junior</t>
+  </si>
+  <si>
+    <t>Em Espera</t>
+  </si>
+  <si>
+    <t>Aguardando Solicitante</t>
+  </si>
+  <si>
+    <t>Ana Carolina da Silva Soares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/06/2024 15:37:29 - Benjamin de Oliveira Machado Junior (Anotações de trabalho)
 Reunião realizada. Resumidamente o Sr. Mauricio Milbratz de Souza vai avaliar a possibilidade de solicitar permissão de ajuste de duplicidade.
 05/06/2024 11:31:57 - Benjamin de Oliveira Machado Junior (Anotações de trabalho)
 Agendado reunião com usuário abaixo as 14 horas
@@ -404,51 +209,15 @@
 28/05/2024 10:11:45 - Luis Henrique Goncalves (Anotações de trabalho)
 [code] &lt;p&gt;&lt;b&gt;Designando analista N1&lt;/b&gt; - Favor verificar.&lt;/p&gt;[code]
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="inlineStr">
-        <is>
-          <t>INC1571839</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="n">
-        <v>45426.69908564815</v>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D5" s="10" t="inlineStr">
-        <is>
-          <t>manifestação 00245506 cliente SHELL ENERGY DO BRASIL GAS LTDA</t>
-        </is>
-      </c>
-      <c r="E5" s="10" t="inlineStr">
-        <is>
-          <t>Benjamin de Oliveira Machado Junior</t>
-        </is>
-      </c>
-      <c r="F5" s="10" t="inlineStr">
-        <is>
-          <t>Em Espera</t>
-        </is>
-      </c>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>Aguardando Solicitante</t>
-        </is>
-      </c>
-      <c r="H5" s="10" t="inlineStr">
-        <is>
-          <t>SACP SAC Petrobras</t>
-        </is>
-      </c>
-      <c r="I5" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">05/06/2024 09:05:33 - Maria da Conceicao Marques Abreu (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1571839</t>
+  </si>
+  <si>
+    <t>manifestação 00245506 cliente SHELL ENERGY DO BRASIL GAS LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/06/2024 09:05:33 - Maria da Conceicao Marques Abreu (Anotações de trabalho)
 RITM0989305 - Solicitação de detalhes do usuário. Foi solicitado novamente para o analista apresentar a tela com o erro.
 04/06/2024 09:48:35 - Benjamin de Oliveira Machado Junior (Anotações de trabalho)
 RITM0989305 - Solicitação de detalhes do usuário.
@@ -481,51 +250,15 @@
 14/05/2024 16:46:41 - Aline Leite Francelino (Anotações de trabalho)
 Dificuldade em edição 
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t>INC1553427</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>45421.51436342593</v>
-      </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D6" s="10" t="inlineStr">
-        <is>
-          <t>Manifestação: 00244616 - Cliente: MAXXI DISTRIBUIDORA DE PETROLEO LTD</t>
-        </is>
-      </c>
-      <c r="E6" s="10" t="inlineStr">
-        <is>
-          <t>Benjamin de Oliveira Machado Junior</t>
-        </is>
-      </c>
-      <c r="F6" s="10" t="inlineStr">
-        <is>
-          <t>Em Espera</t>
-        </is>
-      </c>
-      <c r="G6" s="10" t="inlineStr">
-        <is>
-          <t>Aguardando Solicitante</t>
-        </is>
-      </c>
-      <c r="H6" s="10" t="inlineStr">
-        <is>
-          <t>SACP SAC Petrobras</t>
-        </is>
-      </c>
-      <c r="I6" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">05/06/2024 15:32:18 - Benjamin de Oliveira Machado Junior (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1553427</t>
+  </si>
+  <si>
+    <t>Manifestação: 00244616 - Cliente: MAXXI DISTRIBUIDORA DE PETROLEO LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/06/2024 15:32:18 - Benjamin de Oliveira Machado Junior (Anotações de trabalho)
 RITM1011188 - Orientação de acesso enviado ao usuário master. Aguardando validação para encerramento.
 05/06/2024 13:57:50 - Benjamin de Oliveira Machado Junior (Anotações de trabalho)
 Entrando em contato com equipe de cadastro de usuários master.
@@ -603,51 +336,21 @@
 09/05/2024 12:20:41 - Jackson Epaminondas de Sousa (Anotações de trabalho)
 Cliente informa que usuário Master  não aparecem os produtos para incluir nos secundários. Solicita verificação e apoio
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="inlineStr">
-        <is>
-          <t>INC1641466</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>45447.48278935185</v>
-      </c>
-      <c r="C7" s="10" t="inlineStr">
-        <is>
-          <t>2 - Alta</t>
-        </is>
-      </c>
-      <c r="D7" s="10" t="inlineStr">
-        <is>
-          <t>Configuração de nova BASE não funciona</t>
-        </is>
-      </c>
-      <c r="E7" s="10" t="inlineStr">
-        <is>
-          <t>Benjamin de Oliveira Machado Junior</t>
-        </is>
-      </c>
-      <c r="F7" s="10" t="inlineStr">
-        <is>
-          <t>Em Andamento</t>
-        </is>
-      </c>
-      <c r="G7" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H7" s="10" t="inlineStr">
-        <is>
-          <t>Gustavo Barreto Gomes Guidorizzi</t>
-        </is>
-      </c>
-      <c r="I7" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">05/06/2024 13:25:59 - Benjamin de Oliveira Machado Junior (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1641466</t>
+  </si>
+  <si>
+    <t>2 - Alta</t>
+  </si>
+  <si>
+    <t>Configuração de nova BASE não funciona</t>
+  </si>
+  <si>
+    <t>Gustavo Barreto Gomes Guidorizzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/06/2024 13:25:59 - Benjamin de Oliveira Machado Junior (Anotações de trabalho)
 [13:14] Gustavo Barreto Gomes Guidorizzi
 Benjamin, boa tarde! Voltei do almoço e apareceu uma janela pop up: "permanecer nesta página / sair". Daí voltou pra tela de login do SGCD.
 Pedi para usuário tentar fazer novamente pra tentar capturar erro. Enquanto isto verificando informações em simulação em ambiente de desenvolvimento.
@@ -703,51 +406,21 @@
 Artigo de conhecimento relacionado por: F3DV
 [code]&lt;a title='KP - Atender SGCD - Canal Cliente' href='kb_view.do?sys_kb_id=eca44bb01b698adc7834ed7fe54bcba0'&gt;KB0048360 : KP - Atender SGCD - Canal Cliente&lt;/a&gt;[/code]
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="inlineStr">
-        <is>
-          <t>INC1431163</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>45390.4015625</v>
-      </c>
-      <c r="C8" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D8" s="10" t="inlineStr">
-        <is>
-          <t>Chamado referente a RITM0862650.</t>
-        </is>
-      </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>Diogo Santos Pombo</t>
-        </is>
-      </c>
-      <c r="F8" s="10" t="inlineStr">
-        <is>
-          <t>Em Andamento</t>
-        </is>
-      </c>
-      <c r="G8" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H8" s="10" t="inlineStr">
-        <is>
-          <t>Helio Arruda</t>
-        </is>
-      </c>
-      <c r="I8" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04/06/2024 09:38:54 - Jose Antonio de Souza Silva (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1431163</t>
+  </si>
+  <si>
+    <t>Chamado referente a RITM0862650.</t>
+  </si>
+  <si>
+    <t>Diogo Santos Pombo</t>
+  </si>
+  <si>
+    <t>Helio Arruda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/06/2024 09:38:54 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Roteando analista
 28/05/2024 13:53:18 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Priorizando chamados INC1590958, INC1592704, INC1592743 -  Problema já identificado. - Verificar CC_COTA_DIA e CC_COTA_DIA_ANALISE - Algumas colunas se encontram com o desencontro das informações descritas no chamado - Investigar e verificar reprocessamento das tabelas
@@ -788,51 +461,18 @@
 08/04/2024 09:38:15 - Pricilla Cristina dos Santos Dias (Anotações de trabalho)
 Cargas do dia 01/04 foram lançadas incorretamente no mês de março.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10" t="inlineStr">
-        <is>
-          <t>INC1583545</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="n">
-        <v>45429.53292824074</v>
-      </c>
-      <c r="C9" s="10" t="inlineStr">
-        <is>
-          <t>4 - Baixa</t>
-        </is>
-      </c>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>Portal do Canal Cliente</t>
-        </is>
-      </c>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>Diogo Santos Pombo</t>
-        </is>
-      </c>
-      <c r="F9" s="10" t="inlineStr">
-        <is>
-          <t>Em Andamento</t>
-        </is>
-      </c>
-      <c r="G9" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>Marcia da Silva</t>
-        </is>
-      </c>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">05/06/2024 09:55:43 - Maria da Conceicao Marques Abreu (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1583545</t>
+  </si>
+  <si>
+    <t>Portal do Canal Cliente</t>
+  </si>
+  <si>
+    <t>Marcia da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/06/2024 09:55:43 - Maria da Conceicao Marques Abreu (Anotações de trabalho)
 Favor analisar
 23/05/2024 10:32:44 - Diogo Santos Pombo (Anotações de trabalho)
 Roteando analista!
@@ -841,51 +481,18 @@
 17/05/2024 12:48:36 - Herbert Wagner Viana Morais (Anotações de trabalho)
 [code]&lt;a title="KP - Atender Canal Cliente" href='kb_view.do?sys_kb_id=1c7816851b790e18b5922170f54bcb5e' &gt;KB0034570 : KP - Atender Canal Cliente&lt;/a&gt;[/code]
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="inlineStr">
-        <is>
-          <t>INC1474630</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>45401.50568287037</v>
-      </c>
-      <c r="C10" s="10" t="inlineStr">
-        <is>
-          <t>4 - Baixa</t>
-        </is>
-      </c>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>Erro na migração das modificações de Pedido do Canal Cliente para o SGCD</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Diogo Santos Pombo</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Em Espera</t>
-        </is>
-      </c>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Aguardando Solicitante</t>
-        </is>
-      </c>
-      <c r="H10" s="10" t="inlineStr">
-        <is>
-          <t>Daniele de Moura Figueiredo</t>
-        </is>
-      </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">31/05/2024 14:10:29 - Diogo Santos Pombo (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1474630</t>
+  </si>
+  <si>
+    <t>Erro na migração das modificações de Pedido do Canal Cliente para o SGCD</t>
+  </si>
+  <si>
+    <t>Daniele de Moura Figueiredo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/05/2024 14:10:29 - Diogo Santos Pombo (Anotações de trabalho)
 Preparando ambiente para investigação!
 02/05/2024 09:01:11 - Diogo Santos Pombo (Anotações de trabalho)
 Aguardando resposta da usuária!
@@ -907,100 +514,37 @@
 Encaminhando conforme solicitado pelo usuário.
 [code]&lt;a title='KP - Atender SGCD - Canal Cliente' href='kb_view.do?sys_kb_id=eca44bb01b698adc7834ed7fe54bcba0' &gt;KB0048360 : KP - Atender SGCD - Canal Cliente&lt;/a&gt;[/code]
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="inlineStr">
-        <is>
-          <t>INC1616893</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>45439.56361111111</v>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>4 - Baixa</t>
-        </is>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>SGCD - recuperar o log de uma operação</t>
-        </is>
-      </c>
-      <c r="E11" s="10" t="inlineStr">
-        <is>
-          <t>Diogo Santos Pombo</t>
-        </is>
-      </c>
-      <c r="F11" s="10" t="inlineStr">
-        <is>
-          <t>Em Andamento</t>
-        </is>
-      </c>
-      <c r="G11" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Rodrigo Tamarozi</t>
-        </is>
-      </c>
-      <c r="I11" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">31/05/2024 14:10:21 - Diogo Santos Pombo (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1616893</t>
+  </si>
+  <si>
+    <t>SGCD - recuperar o log de uma operação</t>
+  </si>
+  <si>
+    <t>Rodrigo Tamarozi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/05/2024 14:10:21 - Diogo Santos Pombo (Anotações de trabalho)
 Preparando ambiente para investigação!
 27/05/2024 16:15:30 - Diogo Santos Pombo (Anotações de trabalho)
 Atribuindo novo analista, na fila para analise.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="inlineStr">
-        <is>
-          <t>INC1592704</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="n">
-        <v>45432.7371412037</v>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>2 - Alta</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Encaminhar para N4-SALESFORCE_RGNCL - [Bug] Suprimentos Pedido por Planilha - Não permitiu gravar o Rascunho do Pedido</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Jose Antonio de Souza Silva</t>
-        </is>
-      </c>
-      <c r="F12" s="10" t="inlineStr">
-        <is>
-          <t>Em Andamento</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Viviane Ribeiro Maciel Peixoto</t>
-        </is>
-      </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">05/06/2024 08:46:38 - Maria da Conceicao Marques Abreu (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1592704</t>
+  </si>
+  <si>
+    <t>Encaminhar para N4-SALESFORCE_RGNCL - [Bug] Suprimentos Pedido por Planilha - Não permitiu gravar o Rascunho do Pedido</t>
+  </si>
+  <si>
+    <t>Jose Antonio de Souza Silva</t>
+  </si>
+  <si>
+    <t>Viviane Ribeiro Maciel Peixoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/06/2024 08:46:38 - Maria da Conceicao Marques Abreu (Anotações de trabalho)
 Favor verificar
 05/06/2024 08:44:35 - Debora Franco Resende (Anotações de trabalho)
 Favor verificar
@@ -1205,51 +749,15 @@
 20/05/2024 17:42:09 - Monique Araujo (Anotações de trabalho)
 Iniciando a tratativa
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="inlineStr">
-        <is>
-          <t>INC1590958</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>45432.482094907406</v>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>2 - Alta</t>
-        </is>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>Encaminhar para mesa N4-SALESFORCE_RGNCL - [Bug]  Alteração de Pedido Por Planilha - Falha ao Gravar a Alteração do Pedido</t>
-        </is>
-      </c>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Jose Antonio de Souza Silva</t>
-        </is>
-      </c>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Em Espera</t>
-        </is>
-      </c>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Aguardando Solicitante</t>
-        </is>
-      </c>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>Viviane Ribeiro Maciel Peixoto</t>
-        </is>
-      </c>
-      <c r="I13" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04/06/2024 09:32:28 - Jose Antonio de Souza Silva (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1590958</t>
+  </si>
+  <si>
+    <t>Encaminhar para mesa N4-SALESFORCE_RGNCL - [Bug]  Alteração de Pedido Por Planilha - Falha ao Gravar a Alteração do Pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/06/2024 09:32:28 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Correção disponibilizada no ambiente de qualidade - Em teste
 29/05/2024 17:24:33 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Correção disponibilizada no ambiente de qualidade - Em teste
@@ -1274,51 +782,15 @@
 #Tratando chamado.
 [code]&lt;a title="Solicitar suporte no CRM Salesforce" href='kb_view.do?sys_kb_id=5b57235b87907194b848a9790cbb358b' &gt;KB0049071 : Solicitar suporte no CRM Salesforce&lt;/a&gt;[/code]
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="inlineStr">
-        <is>
-          <t>INC1537745</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>45418.628530092596</v>
-      </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D14" s="10" t="inlineStr">
-        <is>
-          <t>manifestação 00244372 cliente VIBRA ENERGIA S.A</t>
-        </is>
-      </c>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Jose Antonio de Souza Silva</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Em Andamento</t>
-        </is>
-      </c>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>SACP SAC Petrobras</t>
-        </is>
-      </c>
-      <c r="I14" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04/06/2024 09:33:07 - Jose Antonio de Souza Silva (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1537745</t>
+  </si>
+  <si>
+    <t>manifestação 00244372 cliente VIBRA ENERGIA S.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/06/2024 09:33:07 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Chamado sendo tratado no INC1590958 - Correção disponibilizada no ambiente de qualidade, em testes.
 28/05/2024 09:24:38 - Benjamin de Oliveira Machado Junior (Anotações de trabalho)
 encaminhando
@@ -1360,51 +832,15 @@
 06/05/2024 15:05:05 - Aline Leite Francelino (Anotações de trabalho)
 erro
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="inlineStr">
-        <is>
-          <t>INC1284466</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>45350.538449074076</v>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>manifestação 00235674 cliente VIBRA ENERGIA S.A</t>
-        </is>
-      </c>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Jose Antonio de Souza Silva</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>Em Andamento</t>
-        </is>
-      </c>
-      <c r="G15" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>SACP SAC Petrobras</t>
-        </is>
-      </c>
-      <c r="I15" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04/06/2024 09:32:57 - Jose Antonio de Souza Silva (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1284466</t>
+  </si>
+  <si>
+    <t>manifestação 00235674 cliente VIBRA ENERGIA S.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/06/2024 09:32:57 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Chamado sendo tratado no INC1590958 - Correção disponibilizada no ambiente de qualidade, em testes.
 28/05/2024 10:45:40 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Atribuindo analista
@@ -1605,51 +1041,18 @@
 28/02/2024 12:55:26 - Aline Leite Francelino (Anotações de trabalho)
 erro pedido
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="inlineStr">
-        <is>
-          <t>INC1418543</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>45386.385671296295</v>
-      </c>
-      <c r="C16" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D16" s="10" t="inlineStr">
-        <is>
-          <t>SAP: Nota fiscal com status de autorizada no CC DUTO</t>
-        </is>
-      </c>
-      <c r="E16" s="10" t="inlineStr">
-        <is>
-          <t>Jose Antonio de Souza Silva</t>
-        </is>
-      </c>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Em Andamento</t>
-        </is>
-      </c>
-      <c r="G16" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H16" s="10" t="inlineStr">
-        <is>
-          <t>Leandro Oliveira dos Santos Monteiro</t>
-        </is>
-      </c>
-      <c r="I16" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28/05/2024 13:52:46 - Jose Antonio de Souza Silva (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1418543</t>
+  </si>
+  <si>
+    <t>SAP: Nota fiscal com status de autorizada no CC DUTO</t>
+  </si>
+  <si>
+    <t>Leandro Oliveira dos Santos Monteiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/05/2024 13:52:46 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Priorizando chamados INC1590958, INC1592704, INC1592743 - Nota já se encontra cancelada no banco porém não exibe em tela no Duto o status correto da nota.
 23/05/2024 16:54:15 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Em aguardo na fila, atendendo outras demandas - Problema já identificado. - Nota já se encontra cancelada no banco
@@ -1706,51 +1109,15 @@
 04/04/2024 09:23:10 - Joni da Silva Javara (Anotações de trabalho)
 [code]&lt;a title='Consultar Nota Fiscal pela J1BNFE' href='kb_view.do?sys_kb_id=91c5b62c1b5bd990a30a0e9fe54bcb5b' &gt;KB0043897 : Consultar Nota Fiscal pela J1BNFE&lt;/a&gt;[/code]
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="10" t="inlineStr">
-        <is>
-          <t>INC1600169</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>45434.563125</v>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>manifestação 00246139 cliente ISOGAMA INDUSTRIA QUIMICA LTDA</t>
-        </is>
-      </c>
-      <c r="E17" s="10" t="inlineStr">
-        <is>
-          <t>Jose Antonio de Souza Silva</t>
-        </is>
-      </c>
-      <c r="F17" s="10" t="inlineStr">
-        <is>
-          <t>Em Andamento</t>
-        </is>
-      </c>
-      <c r="G17" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H17" s="10" t="inlineStr">
-        <is>
-          <t>SACP SAC Petrobras</t>
-        </is>
-      </c>
-      <c r="I17" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04/06/2024 09:33:11 - Jose Antonio de Souza Silva (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1600169</t>
+  </si>
+  <si>
+    <t>manifestação 00246139 cliente ISOGAMA INDUSTRIA QUIMICA LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/06/2024 09:33:11 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Chamado sendo tratado no INC1590958 - Correção disponibilizada no ambiente de qualidade, em testes.
 29/05/2024 14:15:21 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Atribuindo analista
@@ -1790,51 +1157,15 @@
 22/05/2024 13:30:54 - Aline Leite Francelino (Anotações de trabalho)
 Na solicitação de adicional dar erro mesmo com todos os campos preenchidos. Fala que o produto de origem não foi encontrado e os dados estão incompletos mesmo não estando.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="10" t="inlineStr">
-        <is>
-          <t>INC1170405</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>45315.47479166667</v>
-      </c>
-      <c r="C18" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D18" s="10" t="inlineStr">
-        <is>
-          <t>Manifestação: 00232333 - Cliente: USEGAS DISTRIBUIDORA DE GAS LTDA - EPP</t>
-        </is>
-      </c>
-      <c r="E18" s="10" t="inlineStr">
-        <is>
-          <t>Jose Antonio de Souza Silva</t>
-        </is>
-      </c>
-      <c r="F18" s="10" t="inlineStr">
-        <is>
-          <t>Em Espera</t>
-        </is>
-      </c>
-      <c r="G18" s="10" t="inlineStr">
-        <is>
-          <t>Aguardando Solicitante</t>
-        </is>
-      </c>
-      <c r="H18" s="10" t="inlineStr">
-        <is>
-          <t>SACP SAC Petrobras</t>
-        </is>
-      </c>
-      <c r="I18" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04/06/2024 09:23:30 - Jose Antonio de Souza Silva (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1170405</t>
+  </si>
+  <si>
+    <t>Manifestação: 00232333 - Cliente: USEGAS DISTRIBUIDORA DE GAS LTDA - EPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/06/2024 09:23:30 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Criado o RITM1004789
 28/05/2024 13:51:50 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Priorizando chamados INC1590958, INC1592704, INC1592743 - Reunião feita em 03/05 para compreensão do erro - Desenvolvimento para tratativa do erro iniciada, validação agora é feita com sucesso porém se encontra com uma falha na hora de salvar o campo Valor Aceite.
@@ -1952,51 +1283,15 @@
 24/01/2024 11:23:42 - Jackson Epaminondas de Sousa (Anotações de trabalho)
 Cliente relata problema na análise de saldo.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="10" t="inlineStr">
-        <is>
-          <t>INC1592743</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="n">
-        <v>45432.74900462963</v>
-      </c>
-      <c r="C19" s="10" t="inlineStr">
-        <is>
-          <t>2 - Alta</t>
-        </is>
-      </c>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Encaminhar para N4-CANAL_CLIENTE_EY - [Bug]  Pedido por Planilha - Carregou a tela de resumo, mas, não contabilizou corretamente a quantidade de locais com pedido.   - O erro está no canal cliente antigo e reflete no Salesforce.</t>
-        </is>
-      </c>
-      <c r="E19" s="10" t="inlineStr">
-        <is>
-          <t>Jose Antonio de Souza Silva</t>
-        </is>
-      </c>
-      <c r="F19" s="10" t="inlineStr">
-        <is>
-          <t>Em Espera</t>
-        </is>
-      </c>
-      <c r="G19" s="10" t="inlineStr">
-        <is>
-          <t>Aguardando Solicitante</t>
-        </is>
-      </c>
-      <c r="H19" s="10" t="inlineStr">
-        <is>
-          <t>Viviane Ribeiro Maciel Peixoto</t>
-        </is>
-      </c>
-      <c r="I19" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04/06/2024 09:32:36 - Jose Antonio de Souza Silva (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1592743</t>
+  </si>
+  <si>
+    <t>Encaminhar para N4-CANAL_CLIENTE_EY - [Bug]  Pedido por Planilha - Carregou a tela de resumo, mas, não contabilizou corretamente a quantidade de locais com pedido.   - O erro está no canal cliente antigo e reflete no Salesforce.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/06/2024 09:32:36 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Correção disponibilizada no ambiente de qualidade - Em teste
 29/05/2024 17:26:33 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Em desenvolvimento para a correção do comportamento, identificado que lógica para a adição dos locais estava com erro. Alteração realizada, em testes internos - Em análise
@@ -2013,51 +1308,21 @@
 20/05/2024 18:02:23 - Monique Araujo (Anotações de trabalho)
 Iniciando a tratativa
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="10" t="inlineStr">
-        <is>
-          <t>INC1300099</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>45355.61498842593</v>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>4 - Baixa</t>
-        </is>
-      </c>
-      <c r="D20" s="10" t="inlineStr">
-        <is>
-          <t>Falha na Reanalise comercial do CC Duto - Entrega Dutoviária</t>
-        </is>
-      </c>
-      <c r="E20" s="10" t="inlineStr">
-        <is>
-          <t>Kelly Barbato Macagi</t>
-        </is>
-      </c>
-      <c r="F20" s="10" t="inlineStr">
-        <is>
-          <t>Em Espera</t>
-        </is>
-      </c>
-      <c r="G20" s="10" t="inlineStr">
-        <is>
-          <t>Aguardando Solicitante</t>
-        </is>
-      </c>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Célia Regina de Oliveira</t>
-        </is>
-      </c>
-      <c r="I20" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">05/06/2024 09:00:01 - Maria da Conceicao Marques Abreu (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1300099</t>
+  </si>
+  <si>
+    <t>Falha na Reanalise comercial do CC Duto - Entrega Dutoviária</t>
+  </si>
+  <si>
+    <t>Kelly Barbato Macagi</t>
+  </si>
+  <si>
+    <t>Célia Regina de Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/06/2024 09:00:01 - Maria da Conceicao Marques Abreu (Anotações de trabalho)
 Em análise com o time de negócio, pois acredita-se que não haja regra especificada para este cenário.
 27/05/2024 12:28:20 - Kelly Barbato Macagi (Anotações de trabalho)
 Em análise com o time de negócio, pois acredita-se que não haja regra especificada para este cenário.
@@ -2107,51 +1372,21 @@
 04/03/2024 14:47:34 - Hellen Ribeiro de Souza Gomes (Anotações de trabalho)
 - Designando analista responsável pelo atendimento N1.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="inlineStr">
-        <is>
-          <t>INC0894562</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>45236.693032407406</v>
-      </c>
-      <c r="C21" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D21" s="10" t="inlineStr">
-        <is>
-          <t>Usuário solicita informação sobre agendamento</t>
-        </is>
-      </c>
-      <c r="E21" s="10" t="inlineStr">
-        <is>
-          <t>Rafael Gielow Pereira Ferro</t>
-        </is>
-      </c>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Em Andamento</t>
-        </is>
-      </c>
-      <c r="G21" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H21" s="10" t="inlineStr">
-        <is>
-          <t>Luciano Monteiro de Souza</t>
-        </is>
-      </c>
-      <c r="I21" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04/06/2024 12:47:12 - Maria da Conceicao Marques Abreu (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC0894562</t>
+  </si>
+  <si>
+    <t>Usuário solicita informação sobre agendamento</t>
+  </si>
+  <si>
+    <t>Rafael Gielow Pereira Ferro</t>
+  </si>
+  <si>
+    <t>Luciano Monteiro de Souza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/06/2024 12:47:12 - Maria da Conceicao Marques Abreu (Anotações de trabalho)
 Alinhando com o Marco Currais o tratamento para este caso.
 03/06/2024 11:48:00 - Maria da Conceicao Marques Abreu (Anotações de trabalho)
 Este chamado não conseguimos reproduzir o erro, em conversa com o Joselias ele solicitou se podemos encerrar o chamado.
@@ -2260,51 +1495,18 @@
 06/11/2023 16:38:47 - Samuel Silva Manso (Anotações de trabalho)
 Celular: 21-98392-3373
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="inlineStr">
-        <is>
-          <t>INC0774638</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>45202.41180555556</v>
-      </c>
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D22" s="10" t="inlineStr">
-        <is>
-          <t>Usuário com erro em Analise de Saldos</t>
-        </is>
-      </c>
-      <c r="E22" s="10" t="inlineStr">
-        <is>
-          <t>Rafael Gielow Pereira Ferro</t>
-        </is>
-      </c>
-      <c r="F22" s="10" t="inlineStr">
-        <is>
-          <t>Em Espera</t>
-        </is>
-      </c>
-      <c r="G22" s="10" t="inlineStr">
-        <is>
-          <t>Aguardando Solicitante</t>
-        </is>
-      </c>
-      <c r="H22" s="10" t="inlineStr">
-        <is>
-          <t>Rogerio Agilberto Lara</t>
-        </is>
-      </c>
-      <c r="I22" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21/05/2024 18:01:55 - Kelly Barbato Macagi (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC0774638</t>
+  </si>
+  <si>
+    <t>Usuário com erro em Analise de Saldos</t>
+  </si>
+  <si>
+    <t>Rogerio Agilberto Lara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/05/2024 18:01:55 - Kelly Barbato Macagi (Anotações de trabalho)
 Aguardando fim do mês para usuário retornar se problema foi sanado.
 17/05/2024 08:43:51 - Maria da Conceicao Marques Abreu (Anotações de trabalho)
 Conforme reunião segue o alinhamento:
@@ -2542,51 +1744,18 @@
 03/10/2023 09:54:24 - Samuel Silva Manso (Anotações de trabalho)
 no dia 29/09 o Canal Cliente lançou um numero negativo, face a mudança da cota total no SAP, o que está fazendo o calculo se perder.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="10" t="inlineStr">
-        <is>
-          <t>INC1617425</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>45439.62842592593</v>
-      </c>
-      <c r="C23" s="10" t="inlineStr">
-        <is>
-          <t>2 - Alta</t>
-        </is>
-      </c>
-      <c r="D23" s="10" t="inlineStr">
-        <is>
-          <t>Erro no Canal Cliente na chamada via API do agendamento dutoviário</t>
-        </is>
-      </c>
-      <c r="E23" s="10" t="inlineStr">
-        <is>
-          <t>Rafael Gielow Pereira Ferro</t>
-        </is>
-      </c>
-      <c r="F23" s="10" t="inlineStr">
-        <is>
-          <t>Em Andamento</t>
-        </is>
-      </c>
-      <c r="G23" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H23" s="10" t="inlineStr">
-        <is>
-          <t>Ricardo Brasil Teixeira</t>
-        </is>
-      </c>
-      <c r="I23" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">27/05/2024 16:16:17 - Diogo Santos Pombo (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1617425</t>
+  </si>
+  <si>
+    <t>Erro no Canal Cliente na chamada via API do agendamento dutoviário</t>
+  </si>
+  <si>
+    <t>Ricardo Brasil Teixeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/05/2024 16:16:17 - Diogo Santos Pombo (Anotações de trabalho)
 Atribuindo analista!
 27/05/2024 15:27:47 - Igor Cicerelli Primo (Anotações de trabalho)
 Erro no Canal Cliente na chamada via API do agendamento dutoviário
@@ -2598,51 +1767,21 @@
 27/05/2024 15:21:47 - Igor Cicerelli Primo (Anotações de trabalho)
 Iniciando tratativa
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="10" t="inlineStr">
-        <is>
-          <t>INC1642216</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>45447.591412037036</v>
-      </c>
-      <c r="C24" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D24" s="10" t="inlineStr">
-        <is>
-          <t>erro na cota considerada na análise de saldo</t>
-        </is>
-      </c>
-      <c r="E24" s="10" t="inlineStr">
-        <is>
-          <t>Victor Hugo de Souza Ramos</t>
-        </is>
-      </c>
-      <c r="F24" s="10" t="inlineStr">
-        <is>
-          <t>Em Andamento</t>
-        </is>
-      </c>
-      <c r="G24" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H24" s="10" t="inlineStr">
-        <is>
-          <t>Andressa Franchin de Siqueira Cortez</t>
-        </is>
-      </c>
-      <c r="I24" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04/06/2024 16:01:16 - Debora Franco Resende (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1642216</t>
+  </si>
+  <si>
+    <t>erro na cota considerada na análise de saldo</t>
+  </si>
+  <si>
+    <t>Victor Hugo de Souza Ramos</t>
+  </si>
+  <si>
+    <t>Andressa Franchin de Siqueira Cortez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/06/2024 16:01:16 - Debora Franco Resende (Anotações de trabalho)
 Favor analisar
 04/06/2024 14:26:49 - Igor Cicerelli Primo (Anotações de trabalho)
 Erro na cota considerada na análise de saldo
@@ -2656,51 +1795,15 @@
 04/06/2024 14:17:05 - Igor Cicerelli Primo (Anotações de trabalho)
 Iniciando tratativa
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="10" t="inlineStr">
-        <is>
-          <t>INC1566771</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="n">
-        <v>45425.69412037037</v>
-      </c>
-      <c r="C25" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D25" s="10" t="inlineStr">
-        <is>
-          <t>Gravação de usuário errado no histórico da análise de saldo</t>
-        </is>
-      </c>
-      <c r="E25" s="10" t="inlineStr">
-        <is>
-          <t>Victor Hugo de Souza Ramos</t>
-        </is>
-      </c>
-      <c r="F25" s="10" t="inlineStr">
-        <is>
-          <t>Em Andamento</t>
-        </is>
-      </c>
-      <c r="G25" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H25" s="10" t="inlineStr">
-        <is>
-          <t>Andressa Franchin de Siqueira Cortez</t>
-        </is>
-      </c>
-      <c r="I25" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">03/06/2024 17:14:48 - Victor Hugo de Souza Ramos (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1566771</t>
+  </si>
+  <si>
+    <t>Gravação de usuário errado no histórico da análise de saldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/06/2024 17:14:48 - Victor Hugo de Souza Ramos (Anotações de trabalho)
 Aguardando procedimento a ser realizado.
 27/05/2024 17:22:15 - Victor Hugo de Souza Ramos (Anotações de trabalho)
 Analisando procedimento a ser realizado.
@@ -2721,51 +1824,18 @@
 13/05/2024 16:43:36 - Monique Araujo (Anotações de trabalho)
 Asssumindo
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="10" t="inlineStr">
-        <is>
-          <t>INC1590879</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="n">
-        <v>45432.47377314815</v>
-      </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>4 - Baixa</t>
-        </is>
-      </c>
-      <c r="D26" s="10" t="inlineStr">
-        <is>
-          <t>Ao realizar o faturamento de produtos para os clientes, os clientes manifestam através do canal cliente os volumes que receberam em suas bases. Porém, quando o bombeio passa da meia noite, o BDEMQ divide em dois registros. Os clientes fazem a manifes</t>
-        </is>
-      </c>
-      <c r="E26" s="10" t="inlineStr">
-        <is>
-          <t>Victor Hugo de Souza Ramos</t>
-        </is>
-      </c>
-      <c r="F26" s="10" t="inlineStr">
-        <is>
-          <t>Em Espera</t>
-        </is>
-      </c>
-      <c r="G26" s="10" t="inlineStr">
-        <is>
-          <t>Aguardando Solicitante</t>
-        </is>
-      </c>
-      <c r="H26" s="10" t="inlineStr">
-        <is>
-          <t>Luiz Fernando Coelho</t>
-        </is>
-      </c>
-      <c r="I26" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04/06/2024 10:00:19 - Victor Hugo de Souza Ramos (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1590879</t>
+  </si>
+  <si>
+    <t>Ao realizar o faturamento de produtos para os clientes, os clientes manifestam através do canal cliente os volumes que receberam em suas bases. Porém, quando o bombeio passa da meia noite, o BDEMQ divide em dois registros. Os clientes fazem a manifes</t>
+  </si>
+  <si>
+    <t>Luiz Fernando Coelho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/06/2024 10:00:19 - Victor Hugo de Souza Ramos (Anotações de trabalho)
 Aguardando solicitante.
 03/06/2024 14:07:09 - Victor Hugo de Souza Ramos (Anotações de trabalho)
 Em contato com o solicitante, o mesmo realizará os testes para validação da correção. 
@@ -2787,51 +1857,18 @@
 21/05/2024 15:25:54 - Vinicius de Oliveira Freitas (Anotações de trabalho)
 [code]&lt;a title="Solicitar suporte no BDEMQ / BDEMQ-CI" href='kb_view.do?sys_kb_id=4bcc27fb87cace9006aeece90cbb3506' &gt;KB0050760 : Solicitar suporte no BDEMQ / BDEMQ-CI&lt;/a&gt;[/code]
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="10" t="inlineStr">
-        <is>
-          <t>INC1436518</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="n">
-        <v>45391.58167824074</v>
-      </c>
-      <c r="C27" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D27" s="10" t="inlineStr">
-        <is>
-          <t>manifestação 00241022 cliente TOTALENERGIES DISTRIBUIDORA BRASIL LTDA</t>
-        </is>
-      </c>
-      <c r="E27" s="10" t="inlineStr">
-        <is>
-          <t>Victor Hugo de Souza Ramos</t>
-        </is>
-      </c>
-      <c r="F27" s="10" t="inlineStr">
-        <is>
-          <t>Em Espera</t>
-        </is>
-      </c>
-      <c r="G27" s="10" t="inlineStr">
-        <is>
-          <t>Aguardando Equipe TIC</t>
-        </is>
-      </c>
-      <c r="H27" s="10" t="inlineStr">
-        <is>
-          <t>SACP SAC Petrobras</t>
-        </is>
-      </c>
-      <c r="I27" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04/06/2024 08:58:25 - Victor Hugo de Souza Ramos (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1436518</t>
+  </si>
+  <si>
+    <t>manifestação 00241022 cliente TOTALENERGIES DISTRIBUIDORA BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>Aguardando Equipe TIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/06/2024 08:58:25 - Victor Hugo de Souza Ramos (Anotações de trabalho)
 Usuária tentará novo teste hoje para saber se problema ainda ocorre, conforme evidências.
 30/05/2024 11:26:51 - Victor Hugo de Souza Ramos (Anotações de trabalho)
 Ainda aguardando resolução do RITM0967717 .
@@ -2887,51 +1924,18 @@
 09/04/2024 13:57:37 - Aline Leite Francelino (Anotações de trabalho)
 problemas no recebimento de notificação, versão antiga canal cliente.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="10" t="inlineStr">
-        <is>
-          <t>INC1626250</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="n">
-        <v>45441.70659722222</v>
-      </c>
-      <c r="C28" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D28" s="10" t="inlineStr">
-        <is>
-          <t>SAP / Canal Cliente - Problema no cadastramento de aviso para cliente N4</t>
-        </is>
-      </c>
-      <c r="E28" s="10" t="inlineStr">
-        <is>
-          <t>Victor Hugo de Souza Ramos</t>
-        </is>
-      </c>
-      <c r="F28" s="10" t="inlineStr">
-        <is>
-          <t>Em Espera</t>
-        </is>
-      </c>
-      <c r="G28" s="10" t="inlineStr">
-        <is>
-          <t>Aguardando Solicitante</t>
-        </is>
-      </c>
-      <c r="H28" s="10" t="inlineStr">
-        <is>
-          <t>Daniel Fernando da Motta Amorim</t>
-        </is>
-      </c>
-      <c r="I28" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">05/06/2024 10:51:46 - Victor Hugo de Souza Ramos (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1626250</t>
+  </si>
+  <si>
+    <t>SAP / Canal Cliente - Problema no cadastramento de aviso para cliente N4</t>
+  </si>
+  <si>
+    <t>Daniel Fernando da Motta Amorim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/06/2024 10:51:46 - Victor Hugo de Souza Ramos (Anotações de trabalho)
 Após investigação, foi detectado que as vigências dos contratos de outros clientes estão expiradas.
 Em contato com solicitante para validar essa questão.
 03/06/2024 17:32:58 - Victor Hugo de Souza Ramos (Anotações de trabalho)
@@ -2964,51 +1968,21 @@
 Usuário entrou em contato relatando problema no cadastramento de aviso para cliente N4.
 Durante a inclusão dos cliente ao aviso alguns são adicionados mas outro não.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="10" t="inlineStr">
-        <is>
-          <t>INC1545769</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="n">
-        <v>45419.69364583334</v>
-      </c>
-      <c r="C29" s="10" t="inlineStr">
-        <is>
-          <t>4 - Baixa</t>
-        </is>
-      </c>
-      <c r="D29" s="10" t="inlineStr">
-        <is>
-          <t>Atendimentos do antigo canal cliente</t>
-        </is>
-      </c>
-      <c r="E29" s="10" t="inlineStr">
-        <is>
-          <t>Vitor Alves Bernardino</t>
-        </is>
-      </c>
-      <c r="F29" s="10" t="inlineStr">
-        <is>
-          <t>Em Andamento</t>
-        </is>
-      </c>
-      <c r="G29" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H29" s="10" t="inlineStr">
-        <is>
-          <t>Andréa Valença Dias</t>
-        </is>
-      </c>
-      <c r="I29" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">05/06/2024 14:29:18 - Jose Antonio de Souza Silva (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1545769</t>
+  </si>
+  <si>
+    <t>Atendimentos do antigo canal cliente</t>
+  </si>
+  <si>
+    <t>Vitor Alves Bernardino</t>
+  </si>
+  <si>
+    <t>Andréa Valença Dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/06/2024 14:29:18 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Roteando analista
 28/05/2024 13:53:49 - Jose Antonio de Souza Silva (Anotações de trabalho)
 Priorizando chamados INC1590958, INC1592704, INC1592743 - Problema replicado, erro saiu no log
@@ -3042,51 +2016,18 @@
 Atendimento possivel amanhã desde as 9:00.
 [code]&lt;a title='KP – Atender Novo Portal Canal Cliente – N2' href='kb_view.do?sys_kb_id=4b38b15f87a3f990d45b84c60cbb35a8' &gt;KB0213970 : KP – Atender Novo Portal Canal Cliente – N2&lt;/a&gt;[/code]
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="10" t="inlineStr">
-        <is>
-          <t>INC1311607</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="n">
-        <v>45358.41954861111</v>
-      </c>
-      <c r="C30" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D30" s="10" t="inlineStr">
-        <is>
-          <t>Portal do Canal Cliente - Dúvidas</t>
-        </is>
-      </c>
-      <c r="E30" s="10" t="inlineStr">
-        <is>
-          <t>Vitor Alves Bernardino</t>
-        </is>
-      </c>
-      <c r="F30" s="10" t="inlineStr">
-        <is>
-          <t>Em Espera</t>
-        </is>
-      </c>
-      <c r="G30" s="10" t="inlineStr">
-        <is>
-          <t>Aguardando Equipe TIC</t>
-        </is>
-      </c>
-      <c r="H30" s="10" t="inlineStr">
-        <is>
-          <t>Kathia Aparecida do Nascimento</t>
-        </is>
-      </c>
-      <c r="I30" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">27/05/2024 11:39:33 - Vitor Alves Bernardino (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1311607</t>
+  </si>
+  <si>
+    <t>Portal do Canal Cliente - Dúvidas</t>
+  </si>
+  <si>
+    <t>Kathia Aparecida do Nascimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/05/2024 11:39:33 - Vitor Alves Bernardino (Anotações de trabalho)
 Aguardando retorno do Tiago Rocha Marques dos Santos, para seguir com o ajuste e resolução do chamado.
 23/05/2024 13:54:35 - Vitor Alves Bernardino (Anotações de trabalho)
 Aguardando a definição do setor de negócios sobre a inclusão do certificado de qualidade com o tipo amos_in_tipo_cert = 'S' na Procedure que carrega os dados da view do BDEMQ. Foi verificado com o Tiago Rocha Marques dos Santos esse processo e estamos no aguardo dessa definição.
@@ -3125,51 +2066,18 @@
 07/03/2024 10:04:09 - Jeozadaque da Silva Francisco (Anotações de trabalho)
 Value of "Channel" changed from "" to "Chat" by F1XI
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="10" t="inlineStr">
-        <is>
-          <t>INC1151273</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="n">
-        <v>45309.946805555555</v>
-      </c>
-      <c r="C31" s="10" t="inlineStr">
-        <is>
-          <t>3 - Moderada</t>
-        </is>
-      </c>
-      <c r="D31" s="10" t="inlineStr">
-        <is>
-          <t>Usuário solicita suporte da equipe N4-Canal_Cliente_EY ao CC-Caminhões</t>
-        </is>
-      </c>
-      <c r="E31" s="10" t="inlineStr">
-        <is>
-          <t>Vitor Alves Bernardino</t>
-        </is>
-      </c>
-      <c r="F31" s="10" t="inlineStr">
-        <is>
-          <t>Em Espera</t>
-        </is>
-      </c>
-      <c r="G31" s="10" t="inlineStr">
-        <is>
-          <t>Aguardando Solicitante</t>
-        </is>
-      </c>
-      <c r="H31" s="10" t="inlineStr">
-        <is>
-          <t>Marco Antonio Currais Lopez</t>
-        </is>
-      </c>
-      <c r="I31" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">27/05/2024 11:34:48 - Vitor Alves Bernardino (Anotações de trabalho)
+  </si>
+  <si>
+    <t>INC1151273</t>
+  </si>
+  <si>
+    <t>Usuário solicita suporte da equipe N4-Canal_Cliente_EY ao CC-Caminhões</t>
+  </si>
+  <si>
+    <t>Marco Antonio Currais Lopez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/05/2024 11:34:48 - Vitor Alves Bernardino (Anotações de trabalho)
 Aguardando teste do solicitante para validarmos a mudança e disponibilizar a correção.
 27/05/2024 11:23:19 - Vitor Alves Bernardino (Anotações de trabalho)
 Aguardando teste da mudança no ambiente de QA.
@@ -3255,10 +2163,1396 @@
 18/01/2024 22:45:09 - Pedro Henrique Goncalves (Anotações de trabalho)
 [code]&lt;a title='KP – Reparar erro &amp;quot;informação não encontrada&amp;quot; no Canal Cliente' href='kb_view.do?sys_kb_id=a9940df387b63d10d45b84c60cbb3537' &gt;KB0048560 : KP – Reparar erro &amp;quot;informação não encontrada&amp;quot; no Canal Cliente&lt;/a&gt;[/code]
 </t>
-        </is>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF649977-A2E9-42E9-9314-D657CBAADB85}" name="Tabela1" displayName="Tabela1" ref="A1:I31" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+  <autoFilter ref="A1:I31" xr:uid="{FF649977-A2E9-42E9-9314-D657CBAADB85}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{54F2309D-BC83-4E14-806E-080C12D3F98D}" name="Número" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3176EC6B-BEFE-4FA5-89D5-40C5212CE0F9}" name="Criado em" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{8D51F324-956E-4574-B2EB-B83FCBCF8A4E}" name="Prioridade" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{68C12B0E-A708-44EC-B475-B953D967DE12}" name="Descrição resumida" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B8724DEA-771C-486A-8B15-21A000E3597F}" name="Atribuído a" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{DCBD5853-FAA3-416A-B7EA-F152AB2E8B52}" name="Status" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{D72BEDA7-80A3-4E3D-9F7B-336573DA0312}" name="Motivo para estar em espera" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{E5A0B8FD-98C7-4D87-9A7B-834CD7E3260D}" name="Usuário Impactado" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{872563A3-5073-4F5C-8600-AE4537C27B73}" name="Anotações de trabalho" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="50.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45447.518414351849</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45448.495659722219</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45440.423703703702</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45426.69908564815</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45421.514363425929</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45447.482789351852</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45390.401562500003</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45429.53292824074</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45401.505682870367</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45439.563611111109</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45432.737141203703</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45432.482094907406</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45418.628530092596</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45350.538449074076</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="4">
+        <v>45386.385671296295</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="4">
+        <v>45434.563125000001</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="4">
+        <v>45315.474791666667</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="4">
+        <v>45432.74900462963</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="4">
+        <v>45355.614988425928</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="4">
+        <v>45236.693032407406</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45202.411805555559</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45439.628425925926</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="4">
+        <v>45447.591412037036</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="4">
+        <v>45425.694120370368</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="4">
+        <v>45432.473773148151</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="4">
+        <v>45391.581678240742</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="4">
+        <v>45441.706597222219</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="4">
+        <v>45419.693645833337</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="4">
+        <v>45358.419548611113</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="4">
+        <v>45309.946805555555</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>